--- a/individual_case_outputs/avey/295.xlsx
+++ b/individual_case_outputs/avey/295.xlsx
@@ -757,7 +757,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>pheochromocytoma</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -857,11 +857,7 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>valvular heart disease</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>anxiety disorder</t>
@@ -874,7 +870,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>pheochromocytoma</t>
+          <t>chronic heart failure</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -959,7 +955,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>chronic heart failure</t>
+          <t>graves disease</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -985,11 +981,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>hypertrophic cardiomyopathy</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1014,11 +1006,7 @@
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>graves disease</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>motion sickness</t>
@@ -1128,7 +1116,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>fainting vasovagal</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
